--- a/image/namingsystem.xlsx
+++ b/image/namingsystem.xlsx
@@ -852,45 +852,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.7734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.91015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/namingsystem.xlsx
+++ b/image/namingsystem.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="223">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -333,10 +333,6 @@
   </si>
   <si>
     <t>NamingSystem.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name for this naming system (computer friendly)</t>
@@ -852,45 +848,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.7734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.91015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2034,19 +2030,19 @@
         <v>49</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2104,7 +2100,7 @@
         <v>48</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>40</v>
@@ -2124,7 +2120,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2150,13 +2146,13 @@
         <v>67</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2182,60 +2178,60 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2261,10 +2257,10 @@
         <v>67</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2291,64 +2287,64 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2367,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2426,7 +2422,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>48</v>
@@ -2447,15 +2443,15 @@
         <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2478,19 +2474,19 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2539,7 +2535,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2560,15 +2556,15 @@
         <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2591,16 +2587,16 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2650,7 +2646,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2671,7 +2667,7 @@
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2679,7 +2675,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2702,16 +2698,16 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2761,7 +2757,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2785,12 +2781,12 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2813,16 +2809,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2848,14 +2844,14 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
       </c>
@@ -2872,7 +2868,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -2901,7 +2897,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2924,16 +2920,16 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2983,7 +2979,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3004,7 +3000,7 @@
         <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3012,7 +3008,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3035,19 +3031,19 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3096,7 +3092,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3117,7 +3113,7 @@
         <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3125,7 +3121,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3148,16 +3144,16 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3183,14 +3179,14 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3207,7 +3203,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3228,7 +3224,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3236,7 +3232,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3259,13 +3255,13 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3316,7 +3312,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3345,7 +3341,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3368,16 +3364,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3427,7 +3423,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>48</v>
@@ -3439,7 +3435,7 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
@@ -3456,7 +3452,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3479,13 +3475,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3536,25 +3532,25 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3565,7 +3561,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3594,7 +3590,7 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>95</v>
@@ -3647,7 +3643,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3665,7 +3661,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3676,11 +3672,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3702,10 +3698,10 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>95</v>
@@ -3760,7 +3756,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3789,7 +3785,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3815,13 +3811,13 @@
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3847,14 +3843,14 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
       </c>
@@ -3871,7 +3867,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>48</v>
@@ -3900,7 +3896,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3923,16 +3919,16 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3982,7 +3978,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>48</v>
@@ -4006,12 +4002,12 @@
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4034,13 +4030,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4048,7 +4044,7 @@
         <v>40</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q29" t="s" s="2">
         <v>40</v>
@@ -4093,7 +4089,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4122,7 +4118,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4145,16 +4141,16 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4204,7 +4200,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4233,7 +4229,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4256,16 +4252,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4315,7 +4311,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
